--- a/数据整理/stocks/港股/01316-耐世特.xlsx
+++ b/数据整理/stocks/港股/01316-耐世特.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.37</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008254</t>
+          <t>006373</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）C</t>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.37</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006373</t>
+          <t>006374</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.11</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.43</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006374</t>
+          <t>008254</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+          <t>华宝致远混合（QDII）C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004266</t>
+          <t>008253</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+          <t>华宝致远混合（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -678,25 +748,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010754</t>
+          <t>004266</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.81</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -706,25 +786,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>008254</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>华宝致远混合（QDII）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>90.31</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.04</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008254</t>
+          <t>010754</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）C</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01316-耐世特.xlsx
+++ b/数据整理/stocks/港股/01316-耐世特.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -859,4 +860,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01316-耐世特.xlsx
+++ b/数据整理/stocks/港股/01316-耐世特.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1182,4 +1183,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01316-耐世特.xlsx
+++ b/数据整理/stocks/港股/01316-耐世特.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01316-耐世特.xlsx
+++ b/数据整理/stocks/港股/01316-耐世特.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1324,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,17 +1336,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1355,14 +1376,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
+          <t>161229</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1371,14 +1414,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.37</v>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1387,14 +1452,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1403,13 +1490,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01316-耐世特.xlsx
+++ b/数据整理/stocks/港股/01316-耐世特.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1571,7 +1572,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1582,17 +1583,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1602,14 +1623,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>005493</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1618,14 +1661,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1634,14 +1699,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.37</v>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1650,14 +1737,134 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>005494</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鑫元价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6">
@@ -1666,13 +1873,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01316-耐世特.xlsx
+++ b/数据整理/stocks/港股/01316-耐世特.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,205 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008253</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0244</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006373</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006374</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -685,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -715,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>005493</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>鑫元价值精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>60.60</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0298</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -753,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004266</t>
+          <t>012315</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>82.80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0231</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -791,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008254</t>
+          <t>012316</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）C</t>
+          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.31</t>
+          <t>82.80</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0055</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -829,36 +753,34 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010754</t>
+          <t>005494</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+          <t>鑫元价值精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>60.60</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,7 +815,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -923,36 +845,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011157</t>
+          <t>161229</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合A</t>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1816</t>
+          <t>0.0626</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -961,36 +883,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161229</t>
+          <t>008253</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+          <t>华宝致远混合（QDII）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.05</t>
+          <t>85.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0751</t>
+          <t>0.0276</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -999,36 +921,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011158</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>弘毅远方港股通智选领航混合C</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0386</t>
+          <t>0.0260</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1037,36 +959,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>86.07</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0302</t>
+          <t>0.0176</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1075,112 +997,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>008254</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>华宝致远混合（QDII）C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.94</t>
+          <t>85.18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005143</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
         <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008254</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝致远混合（QDII）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1347,7 +1193,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1377,36 +1223,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161229</t>
+          <t>011157</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银中国价值发现股票QDII-LOF</t>
+          <t>弘毅远方港股通智选领航混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0626</t>
+          <t>0.1816</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1415,36 +1261,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008253</t>
+          <t>161229</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华宝致远混合（QDII）A</t>
+          <t>国投瑞银中国价值发现股票QDII-LOF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.18</t>
+          <t>89.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0276</t>
+          <t>0.0751</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1453,36 +1299,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>011158</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>弘毅远方港股通智选领航混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0260</t>
+          <t>0.0386</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1491,36 +1337,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>008253</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>华宝致远混合（QDII）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0176</t>
+          <t>0.0302</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1529,36 +1375,112 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>008254</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>华宝致远混合（QDII）C</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1593,7 +1515,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1623,36 +1545,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005493</t>
+          <t>008253</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>鑫元价值精选灵活配置混合A</t>
+          <t>华宝致远混合（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>60.60</t>
+          <t>90.31</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0298</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1661,36 +1583,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012315</t>
+          <t>004266</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信港股通成长股票型发起式证券投资基金A</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>90.81</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1699,36 +1621,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012316</t>
+          <t>008254</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>创金合信港股通成长股票型发起式证券投资基金C</t>
+          <t>华宝致远混合（QDII）C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>82.80</t>
+          <t>90.31</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0080</t>
+          <t>0.0055</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1737,34 +1659,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005494</t>
+          <t>010754</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鑫元价值精选灵活配置混合C</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>60.60</t>
+          <t>90.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1778,128 +1702,204 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>008253</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.14</v>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>4</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.08</v>
+          <t>008254</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝致远混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01316-耐世特.xlsx
+++ b/数据整理/stocks/港股/01316-耐世特.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012315</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012316</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信港股通成长股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -788,7 +937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1034,7 +1183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1166,7 +1315,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1488,7 +1637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1696,7 +1845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/01316-耐世特.xlsx
+++ b/数据整理/stocks/港股/01316-耐世特.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005802</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015797</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015796</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>万家新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015196</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015197</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富智能制造股票D</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -731,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -937,7 +1200,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1183,7 +1446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1315,7 +1578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1637,7 +1900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1845,7 +2108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
